--- a/TestCases/Back End/CreateEmployee-BackEnd-Admin.xlsx
+++ b/TestCases/Back End/CreateEmployee-BackEnd-Admin.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{895624D5-871D-46DE-8997-2F82296044AA}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{14698D37-E29E-4EFF-8615-20A43E93DA60}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{895624D5-871D-46DE-8997-2F82296044AA}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{738643EF-67ED-4467-9EE6-0E18FF00E49A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Role: Admin</t>
   </si>
@@ -41,7 +41,19 @@
     <t>I am returned to the login page</t>
   </si>
   <si>
-    <t>Step 2: Login and from the dashboard try to create an employee</t>
+    <t>Step 2: Login as a user with the appropiate role</t>
+  </si>
+  <si>
+    <t>I am redirected to the dashboard</t>
+  </si>
+  <si>
+    <t> Step 3: From the dashboard go to the "Create Employee"</t>
+  </si>
+  <si>
+    <t>I am redirected to the Create Employee page</t>
+  </si>
+  <si>
+    <t>Step 4:  Fill out the proper employee information and submit</t>
   </si>
   <si>
     <t>A new employee is added to the database</t>
@@ -394,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,8 +457,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="56.25" customHeight="1"/>
-    <row r="5" spans="1:6" ht="58.5" customHeight="1"/>
+    <row r="4" spans="1:6" ht="56.25" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58.5" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" ht="60.75" customHeight="1"/>
     <row r="7" spans="1:6" ht="60.75" customHeight="1">
       <c r="F7" s="2"/>

--- a/TestCases/Back End/CreateEmployee-BackEnd-Admin.xlsx
+++ b/TestCases/Back End/CreateEmployee-BackEnd-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{895624D5-871D-46DE-8997-2F82296044AA}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{738643EF-67ED-4467-9EE6-0E18FF00E49A}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{895624D5-871D-46DE-8997-2F82296044AA}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{AAE4C354-68DF-48E5-86FC-34EAE594AA6B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Role: Admin</t>
   </si>
@@ -41,12 +41,18 @@
     <t>I am returned to the login page</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>Step 2: Login as a user with the appropiate role</t>
   </si>
   <si>
     <t>I am redirected to the dashboard</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t> Step 3: From the dashboard go to the "Create Employee"</t>
   </si>
   <si>
@@ -57,6 +63,9 @@
   </si>
   <si>
     <t>A new employee is added to the database</t>
+  </si>
+  <si>
+    <t>Nothing happened. No error message.</t>
   </si>
 </sst>
 </file>
@@ -406,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,29 +457,44 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="58.5" customHeight="1">
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1">
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="58.5" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60.75" customHeight="1"/>
